--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Osm-Il6st.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Osm-Il6st.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Il6st</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -546,10 +546,10 @@
         <v>0.614215</v>
       </c>
       <c r="I2">
-        <v>0.003296321020982326</v>
+        <v>0.003650161018267599</v>
       </c>
       <c r="J2">
-        <v>0.003296321020982325</v>
+        <v>0.003650161018267599</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>86.40747066666665</v>
+        <v>108.845309</v>
       </c>
       <c r="N2">
-        <v>259.222412</v>
+        <v>326.535927</v>
       </c>
       <c r="O2">
-        <v>0.3380062309947018</v>
+        <v>0.3930063530400584</v>
       </c>
       <c r="P2">
-        <v>0.3380062309947017</v>
+        <v>0.3930063530400583</v>
       </c>
       <c r="Q2">
-        <v>17.69092153184222</v>
+        <v>22.28480715581167</v>
       </c>
       <c r="R2">
-        <v>159.21829378658</v>
+        <v>200.563264402305</v>
       </c>
       <c r="S2">
-        <v>0.001114177044450843</v>
+        <v>0.001434536469798335</v>
       </c>
       <c r="T2">
-        <v>0.001114177044450843</v>
+        <v>0.001434536469798335</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -608,10 +608,10 @@
         <v>0.614215</v>
       </c>
       <c r="I3">
-        <v>0.003296321020982326</v>
+        <v>0.003650161018267599</v>
       </c>
       <c r="J3">
-        <v>0.003296321020982325</v>
+        <v>0.003650161018267599</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>375.008064</v>
       </c>
       <c r="O3">
-        <v>0.4889818797969518</v>
+        <v>0.4513455929560021</v>
       </c>
       <c r="P3">
-        <v>0.4889818797969517</v>
+        <v>0.451345592956002</v>
       </c>
       <c r="Q3">
         <v>25.59284200330666</v>
@@ -638,10 +638,10 @@
         <v>230.33557802976</v>
       </c>
       <c r="S3">
-        <v>0.001611841249254145</v>
+        <v>0.001647484089174874</v>
       </c>
       <c r="T3">
-        <v>0.001611841249254145</v>
+        <v>0.001647484089174873</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -670,10 +670,10 @@
         <v>0.614215</v>
       </c>
       <c r="I4">
-        <v>0.003296321020982326</v>
+        <v>0.003650161018267599</v>
       </c>
       <c r="J4">
-        <v>0.003296321020982325</v>
+        <v>0.003650161018267599</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.01290066666667</v>
+        <v>18.88973866666667</v>
       </c>
       <c r="N4">
-        <v>45.038702</v>
+        <v>56.669216</v>
       </c>
       <c r="O4">
-        <v>0.05872702824751719</v>
+        <v>0.06820493571538706</v>
       </c>
       <c r="P4">
-        <v>0.05872702824751717</v>
+        <v>0.06820493571538705</v>
       </c>
       <c r="Q4">
-        <v>3.073716260992222</v>
+        <v>3.867453611715555</v>
       </c>
       <c r="R4">
-        <v>27.66344634893</v>
+        <v>34.80708250543999</v>
       </c>
       <c r="S4">
-        <v>0.0001935831377121137</v>
+        <v>0.0002489589976017534</v>
       </c>
       <c r="T4">
-        <v>0.0001935831377121137</v>
+        <v>0.0002489589976017533</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -732,10 +732,10 @@
         <v>0.614215</v>
       </c>
       <c r="I5">
-        <v>0.003296321020982326</v>
+        <v>0.003650161018267599</v>
       </c>
       <c r="J5">
-        <v>0.003296321020982325</v>
+        <v>0.003650161018267599</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.29188266666667</v>
+        <v>13.37928666666667</v>
       </c>
       <c r="N5">
-        <v>36.875648</v>
+        <v>40.13786</v>
       </c>
       <c r="O5">
-        <v>0.04808302916326276</v>
+        <v>0.04830841776694433</v>
       </c>
       <c r="P5">
-        <v>0.04808302916326274</v>
+        <v>0.04830841776694433</v>
       </c>
       <c r="Q5">
-        <v>2.516619570702222</v>
+        <v>2.739252853322222</v>
       </c>
       <c r="R5">
-        <v>22.64957613632</v>
+        <v>24.6532756799</v>
       </c>
       <c r="S5">
-        <v>0.0001584970997833692</v>
+        <v>0.0001763335033870861</v>
       </c>
       <c r="T5">
-        <v>0.0001584970997833692</v>
+        <v>0.0001763335033870861</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -794,10 +794,10 @@
         <v>0.614215</v>
       </c>
       <c r="I6">
-        <v>0.003296321020982326</v>
+        <v>0.003650161018267599</v>
       </c>
       <c r="J6">
-        <v>0.003296321020982325</v>
+        <v>0.003650161018267599</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.92374966666667</v>
+        <v>10.83857433333333</v>
       </c>
       <c r="N6">
-        <v>50.771249</v>
+        <v>32.515723</v>
       </c>
       <c r="O6">
-        <v>0.06620183179756665</v>
+        <v>0.03913470052160829</v>
       </c>
       <c r="P6">
-        <v>0.06620183179756664</v>
+        <v>0.03913470052160829</v>
       </c>
       <c r="Q6">
-        <v>3.464940300503889</v>
+        <v>2.219071644716111</v>
       </c>
       <c r="R6">
-        <v>31.184462704535</v>
+        <v>19.971644802445</v>
       </c>
       <c r="S6">
-        <v>0.0002182224897818551</v>
+        <v>0.0001428479583055513</v>
       </c>
       <c r="T6">
-        <v>0.000218222489781855</v>
+        <v>0.0001428479583055512</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>2.496115</v>
       </c>
       <c r="I7">
-        <v>0.01339595474758724</v>
+        <v>0.01483392895014454</v>
       </c>
       <c r="J7">
-        <v>0.01339595474758724</v>
+        <v>0.01483392895014454</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>86.40747066666665</v>
+        <v>108.845309</v>
       </c>
       <c r="N7">
-        <v>259.222412</v>
+        <v>326.535927</v>
       </c>
       <c r="O7">
-        <v>0.3380062309947018</v>
+        <v>0.3930063530400584</v>
       </c>
       <c r="P7">
-        <v>0.3380062309947017</v>
+        <v>0.3930063530400583</v>
       </c>
       <c r="Q7">
-        <v>71.89432788104222</v>
+        <v>90.56346949151167</v>
       </c>
       <c r="R7">
-        <v>647.0489509293799</v>
+        <v>815.071225423605</v>
       </c>
       <c r="S7">
-        <v>0.004527916174807545</v>
+        <v>0.005829828317951647</v>
       </c>
       <c r="T7">
-        <v>0.004527916174807544</v>
+        <v>0.005829828317951646</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>2.496115</v>
       </c>
       <c r="I8">
-        <v>0.01339595474758724</v>
+        <v>0.01483392895014454</v>
       </c>
       <c r="J8">
-        <v>0.01339595474758724</v>
+        <v>0.01483392895014454</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>375.008064</v>
       </c>
       <c r="O8">
-        <v>0.4889818797969518</v>
+        <v>0.4513455929560021</v>
       </c>
       <c r="P8">
-        <v>0.4889818797969517</v>
+        <v>0.451345592956002</v>
       </c>
       <c r="Q8">
         <v>104.0070281857067</v>
@@ -948,10 +948,10 @@
         <v>936.06325367136</v>
       </c>
       <c r="S8">
-        <v>0.006550379134150111</v>
+        <v>0.006695228457870192</v>
       </c>
       <c r="T8">
-        <v>0.00655037913415011</v>
+        <v>0.006695228457870191</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>2.496115</v>
       </c>
       <c r="I9">
-        <v>0.01339595474758724</v>
+        <v>0.01483392895014454</v>
       </c>
       <c r="J9">
-        <v>0.01339595474758724</v>
+        <v>0.01483392895014454</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.01290066666667</v>
+        <v>18.88973866666667</v>
       </c>
       <c r="N9">
-        <v>45.038702</v>
+        <v>56.669216</v>
       </c>
       <c r="O9">
-        <v>0.05872702824751719</v>
+        <v>0.06820493571538706</v>
       </c>
       <c r="P9">
-        <v>0.05872702824751717</v>
+        <v>0.06820493571538705</v>
       </c>
       <c r="Q9">
-        <v>12.49130884919222</v>
+        <v>15.71698667731556</v>
       </c>
       <c r="R9">
-        <v>112.42177964273</v>
+        <v>141.45288009584</v>
       </c>
       <c r="S9">
-        <v>0.0007867046128640179</v>
+        <v>0.001011747170451227</v>
       </c>
       <c r="T9">
-        <v>0.0007867046128640177</v>
+        <v>0.001011747170451227</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1042,10 +1042,10 @@
         <v>2.496115</v>
       </c>
       <c r="I10">
-        <v>0.01339595474758724</v>
+        <v>0.01483392895014454</v>
       </c>
       <c r="J10">
-        <v>0.01339595474758724</v>
+        <v>0.01483392895014454</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.29188266666667</v>
+        <v>13.37928666666667</v>
       </c>
       <c r="N10">
-        <v>36.875648</v>
+        <v>40.13786</v>
       </c>
       <c r="O10">
-        <v>0.04808302916326276</v>
+        <v>0.04830841776694433</v>
       </c>
       <c r="P10">
-        <v>0.04808302916326274</v>
+        <v>0.04830841776694433</v>
       </c>
       <c r="Q10">
-        <v>10.22731756750222</v>
+        <v>11.13207937932222</v>
       </c>
       <c r="R10">
-        <v>92.04585810752</v>
+        <v>100.1887144139</v>
       </c>
       <c r="S10">
-        <v>0.0006441180827979855</v>
+        <v>0.0007166036368487523</v>
       </c>
       <c r="T10">
-        <v>0.0006441180827979853</v>
+        <v>0.0007166036368487522</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1104,10 +1104,10 @@
         <v>2.496115</v>
       </c>
       <c r="I11">
-        <v>0.01339595474758724</v>
+        <v>0.01483392895014454</v>
       </c>
       <c r="J11">
-        <v>0.01339595474758724</v>
+        <v>0.01483392895014454</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.92374966666667</v>
+        <v>10.83857433333333</v>
       </c>
       <c r="N11">
-        <v>50.771249</v>
+        <v>32.515723</v>
       </c>
       <c r="O11">
-        <v>0.06620183179756665</v>
+        <v>0.03913470052160829</v>
       </c>
       <c r="P11">
-        <v>0.06620183179756664</v>
+        <v>0.03913470052160829</v>
       </c>
       <c r="Q11">
-        <v>14.08120846640389</v>
+        <v>9.018109324016111</v>
       </c>
       <c r="R11">
-        <v>126.730876197635</v>
+        <v>81.16298391614501</v>
       </c>
       <c r="S11">
-        <v>0.000886836742967585</v>
+        <v>0.0005805213670227219</v>
       </c>
       <c r="T11">
-        <v>0.0008868367429675849</v>
+        <v>0.0005805213670227218</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>22.65109566666667</v>
+        <v>36.17530566666667</v>
       </c>
       <c r="H12">
-        <v>67.953287</v>
+        <v>108.525917</v>
       </c>
       <c r="I12">
-        <v>0.3646863856840764</v>
+        <v>0.6449485468527225</v>
       </c>
       <c r="J12">
-        <v>0.3646863856840764</v>
+        <v>0.6449485468527225</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>86.40747066666665</v>
+        <v>108.845309</v>
       </c>
       <c r="N12">
-        <v>259.222412</v>
+        <v>326.535927</v>
       </c>
       <c r="O12">
-        <v>0.3380062309947018</v>
+        <v>0.3930063530400584</v>
       </c>
       <c r="P12">
-        <v>0.3380062309947017</v>
+        <v>0.3930063530400583</v>
       </c>
       <c r="Q12">
-        <v>1957.22388438536</v>
+        <v>3937.512323457785</v>
       </c>
       <c r="R12">
-        <v>17615.01495946824</v>
+        <v>35437.61091112006</v>
       </c>
       <c r="S12">
-        <v>0.1232662707201548</v>
+        <v>0.2534688762970737</v>
       </c>
       <c r="T12">
-        <v>0.1232662707201548</v>
+        <v>0.2534688762970737</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>22.65109566666667</v>
+        <v>36.17530566666667</v>
       </c>
       <c r="H13">
-        <v>67.953287</v>
+        <v>108.525917</v>
       </c>
       <c r="I13">
-        <v>0.3646863856840764</v>
+        <v>0.6449485468527225</v>
       </c>
       <c r="J13">
-        <v>0.3646863856840764</v>
+        <v>0.6449485468527225</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>375.008064</v>
       </c>
       <c r="O13">
-        <v>0.4889818797969518</v>
+        <v>0.4513455929560021</v>
       </c>
       <c r="P13">
-        <v>0.4889818797969517</v>
+        <v>0.451345592956002</v>
       </c>
       <c r="Q13">
-        <v>2831.447844478485</v>
+        <v>4522.010447554965</v>
       </c>
       <c r="R13">
-        <v>25483.03060030637</v>
+        <v>40698.09402799469</v>
       </c>
       <c r="S13">
-        <v>0.1783250344081559</v>
+        <v>0.2910946843053539</v>
       </c>
       <c r="T13">
-        <v>0.1783250344081558</v>
+        <v>0.2910946843053538</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>22.65109566666667</v>
+        <v>36.17530566666667</v>
       </c>
       <c r="H14">
-        <v>67.953287</v>
+        <v>108.525917</v>
       </c>
       <c r="I14">
-        <v>0.3646863856840764</v>
+        <v>0.6449485468527225</v>
       </c>
       <c r="J14">
-        <v>0.3646863856840764</v>
+        <v>0.6449485468527225</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.01290066666667</v>
+        <v>18.88973866666667</v>
       </c>
       <c r="N14">
-        <v>45.038702</v>
+        <v>56.669216</v>
       </c>
       <c r="O14">
-        <v>0.05872702824751719</v>
+        <v>0.06820493571538706</v>
       </c>
       <c r="P14">
-        <v>0.05872702824751717</v>
+        <v>0.06820493571538705</v>
       </c>
       <c r="Q14">
-        <v>340.0586492348305</v>
+        <v>683.3420702301191</v>
       </c>
       <c r="R14">
-        <v>3060.527843113474</v>
+        <v>6150.078632071072</v>
       </c>
       <c r="S14">
-        <v>0.0214169476735537</v>
+        <v>0.04398867417782224</v>
       </c>
       <c r="T14">
-        <v>0.0214169476735537</v>
+        <v>0.04398867417782223</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,13 +1331,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>22.65109566666667</v>
+        <v>36.17530566666667</v>
       </c>
       <c r="H15">
-        <v>67.953287</v>
+        <v>108.525917</v>
       </c>
       <c r="I15">
-        <v>0.3646863856840764</v>
+        <v>0.6449485468527225</v>
       </c>
       <c r="J15">
-        <v>0.3646863856840764</v>
+        <v>0.6449485468527225</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.29188266666667</v>
+        <v>13.37928666666667</v>
       </c>
       <c r="N15">
-        <v>36.875648</v>
+        <v>40.13786</v>
       </c>
       <c r="O15">
-        <v>0.04808302916326276</v>
+        <v>0.04830841776694433</v>
       </c>
       <c r="P15">
-        <v>0.04808302916326274</v>
+        <v>0.04830841776694433</v>
       </c>
       <c r="Q15">
-        <v>278.4246102061084</v>
+        <v>483.9997847686245</v>
       </c>
       <c r="R15">
-        <v>2505.821491854976</v>
+        <v>4355.998062917621</v>
       </c>
       <c r="S15">
-        <v>0.01753522611829234</v>
+        <v>0.03115644383954499</v>
       </c>
       <c r="T15">
-        <v>0.01753522611829233</v>
+        <v>0.03115644383954498</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,14 +1393,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
         <v>3</v>
       </c>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>22.65109566666667</v>
+        <v>36.17530566666667</v>
       </c>
       <c r="H16">
-        <v>67.953287</v>
+        <v>108.525917</v>
       </c>
       <c r="I16">
-        <v>0.3646863856840764</v>
+        <v>0.6449485468527225</v>
       </c>
       <c r="J16">
-        <v>0.3646863856840764</v>
+        <v>0.6449485468527225</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.92374966666667</v>
+        <v>10.83857433333333</v>
       </c>
       <c r="N16">
-        <v>50.771249</v>
+        <v>32.515723</v>
       </c>
       <c r="O16">
-        <v>0.06620183179756665</v>
+        <v>0.03913470052160829</v>
       </c>
       <c r="P16">
-        <v>0.06620183179756664</v>
+        <v>0.03913470052160829</v>
       </c>
       <c r="Q16">
-        <v>383.3414727383848</v>
+        <v>392.0887394992212</v>
       </c>
       <c r="R16">
-        <v>3450.073254645463</v>
+        <v>3528.798655492991</v>
       </c>
       <c r="S16">
-        <v>0.02414290676391975</v>
+        <v>0.02523986823292775</v>
       </c>
       <c r="T16">
-        <v>0.02414290676391974</v>
+        <v>0.02523986823292775</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>38.423291</v>
+        <v>0.01943233333333333</v>
       </c>
       <c r="H17">
-        <v>115.269873</v>
+        <v>0.058297</v>
       </c>
       <c r="I17">
-        <v>0.6186213385473539</v>
+        <v>0.0003464478022873851</v>
       </c>
       <c r="J17">
-        <v>0.618621338547354</v>
+        <v>0.0003464478022873851</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>86.40747066666665</v>
+        <v>108.845309</v>
       </c>
       <c r="N17">
-        <v>259.222412</v>
+        <v>326.535927</v>
       </c>
       <c r="O17">
-        <v>0.3380062309947018</v>
+        <v>0.3930063530400584</v>
       </c>
       <c r="P17">
-        <v>0.3380062309947017</v>
+        <v>0.3930063530400583</v>
       </c>
       <c r="Q17">
-        <v>3320.059389999297</v>
+        <v>2.115118326257666</v>
       </c>
       <c r="R17">
-        <v>29880.53450999367</v>
+        <v>19.036064936319</v>
       </c>
       <c r="S17">
-        <v>0.2090978670552885</v>
+        <v>0.0001361561872957084</v>
       </c>
       <c r="T17">
-        <v>0.2090978670552885</v>
+        <v>0.0001361561872957084</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>38.423291</v>
+        <v>0.01943233333333333</v>
       </c>
       <c r="H18">
-        <v>115.269873</v>
+        <v>0.058297</v>
       </c>
       <c r="I18">
-        <v>0.6186213385473539</v>
+        <v>0.0003464478022873851</v>
       </c>
       <c r="J18">
-        <v>0.618621338547354</v>
+        <v>0.0003464478022873851</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>375.008064</v>
       </c>
       <c r="O18">
-        <v>0.4889818797969518</v>
+        <v>0.4513455929560021</v>
       </c>
       <c r="P18">
-        <v>0.4889818797969517</v>
+        <v>0.451345592956002</v>
       </c>
       <c r="Q18">
-        <v>4803.014656806207</v>
+        <v>2.429093900778666</v>
       </c>
       <c r="R18">
-        <v>43227.13191125587</v>
+        <v>21.861845107008</v>
       </c>
       <c r="S18">
-        <v>0.3024946250053916</v>
+        <v>0.0001563676887517036</v>
       </c>
       <c r="T18">
-        <v>0.3024946250053916</v>
+        <v>0.0001563676887517035</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>38.423291</v>
+        <v>0.01943233333333333</v>
       </c>
       <c r="H19">
-        <v>115.269873</v>
+        <v>0.058297</v>
       </c>
       <c r="I19">
-        <v>0.6186213385473539</v>
+        <v>0.0003464478022873851</v>
       </c>
       <c r="J19">
-        <v>0.618621338547354</v>
+        <v>0.0003464478022873851</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>15.01290066666667</v>
+        <v>18.88973866666667</v>
       </c>
       <c r="N19">
-        <v>45.038702</v>
+        <v>56.669216</v>
       </c>
       <c r="O19">
-        <v>0.05872702824751719</v>
+        <v>0.06820493571538706</v>
       </c>
       <c r="P19">
-        <v>0.05872702824751717</v>
+        <v>0.06820493571538705</v>
       </c>
       <c r="Q19">
-        <v>576.8450510694273</v>
+        <v>0.3670716983502222</v>
       </c>
       <c r="R19">
-        <v>5191.605459624846</v>
+        <v>3.303645285152</v>
       </c>
       <c r="S19">
-        <v>0.03632979282338734</v>
+        <v>2.362945008374823E-05</v>
       </c>
       <c r="T19">
-        <v>0.03632979282338734</v>
+        <v>2.362945008374822E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>38.423291</v>
+        <v>0.01943233333333333</v>
       </c>
       <c r="H20">
-        <v>115.269873</v>
+        <v>0.058297</v>
       </c>
       <c r="I20">
-        <v>0.6186213385473539</v>
+        <v>0.0003464478022873851</v>
       </c>
       <c r="J20">
-        <v>0.618621338547354</v>
+        <v>0.0003464478022873851</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>12.29188266666667</v>
+        <v>13.37928666666667</v>
       </c>
       <c r="N20">
-        <v>36.875648</v>
+        <v>40.13786</v>
       </c>
       <c r="O20">
-        <v>0.04808302916326276</v>
+        <v>0.04830841776694433</v>
       </c>
       <c r="P20">
-        <v>0.04808302916326274</v>
+        <v>0.04830841776694433</v>
       </c>
       <c r="Q20">
-        <v>472.2945846391893</v>
+        <v>0.2599907582688889</v>
       </c>
       <c r="R20">
-        <v>4250.651261752704</v>
+        <v>2.33991682442</v>
       </c>
       <c r="S20">
-        <v>0.02974518786238906</v>
+        <v>1.673634516733873E-05</v>
       </c>
       <c r="T20">
-        <v>0.02974518786238906</v>
+        <v>1.673634516733873E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.01943233333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.058297</v>
+      </c>
+      <c r="I21">
+        <v>0.0003464478022873851</v>
+      </c>
+      <c r="J21">
+        <v>0.0003464478022873851</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>10.83857433333333</v>
+      </c>
+      <c r="N21">
+        <v>32.515723</v>
+      </c>
+      <c r="O21">
+        <v>0.03913470052160829</v>
+      </c>
+      <c r="P21">
+        <v>0.03913470052160829</v>
+      </c>
+      <c r="Q21">
+        <v>0.2106187893034444</v>
+      </c>
+      <c r="R21">
+        <v>1.895569103731</v>
+      </c>
+      <c r="S21">
+        <v>1.355813098888618E-05</v>
+      </c>
+      <c r="T21">
+        <v>1.355813098888617E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>18.858705</v>
+      </c>
+      <c r="H22">
+        <v>56.576115</v>
+      </c>
+      <c r="I22">
+        <v>0.3362209153765779</v>
+      </c>
+      <c r="J22">
+        <v>0.3362209153765779</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>108.845309</v>
+      </c>
+      <c r="N22">
+        <v>326.535927</v>
+      </c>
+      <c r="O22">
+        <v>0.3930063530400584</v>
+      </c>
+      <c r="P22">
+        <v>0.3930063530400583</v>
+      </c>
+      <c r="Q22">
+        <v>2052.681573064845</v>
+      </c>
+      <c r="R22">
+        <v>18474.1341575836</v>
+      </c>
+      <c r="S22">
+        <v>0.132136955767939</v>
+      </c>
+      <c r="T22">
+        <v>0.1321369557679389</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>18.858705</v>
+      </c>
+      <c r="H23">
+        <v>56.576115</v>
+      </c>
+      <c r="I23">
+        <v>0.3362209153765779</v>
+      </c>
+      <c r="J23">
+        <v>0.3362209153765779</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>125.002688</v>
+      </c>
+      <c r="N23">
+        <v>375.008064</v>
+      </c>
+      <c r="O23">
+        <v>0.4513455929560021</v>
+      </c>
+      <c r="P23">
+        <v>0.451345592956002</v>
+      </c>
+      <c r="Q23">
+        <v>2357.38881719904</v>
+      </c>
+      <c r="R23">
+        <v>21216.49935479136</v>
+      </c>
+      <c r="S23">
+        <v>0.1517518284148514</v>
+      </c>
+      <c r="T23">
+        <v>0.1517518284148513</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>18.858705</v>
+      </c>
+      <c r="H24">
+        <v>56.576115</v>
+      </c>
+      <c r="I24">
+        <v>0.3362209153765779</v>
+      </c>
+      <c r="J24">
+        <v>0.3362209153765779</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>18.88973866666667</v>
+      </c>
+      <c r="N24">
+        <v>56.669216</v>
+      </c>
+      <c r="O24">
+        <v>0.06820493571538706</v>
+      </c>
+      <c r="P24">
+        <v>0.06820493571538705</v>
+      </c>
+      <c r="Q24">
+        <v>356.23600904176</v>
+      </c>
+      <c r="R24">
+        <v>3206.12408137584</v>
+      </c>
+      <c r="S24">
+        <v>0.02293192591942809</v>
+      </c>
+      <c r="T24">
+        <v>0.02293192591942808</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>38.423291</v>
-      </c>
-      <c r="H21">
-        <v>115.269873</v>
-      </c>
-      <c r="I21">
-        <v>0.6186213385473539</v>
-      </c>
-      <c r="J21">
-        <v>0.618621338547354</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>16.92374966666667</v>
-      </c>
-      <c r="N21">
-        <v>50.771249</v>
-      </c>
-      <c r="O21">
-        <v>0.06620183179756665</v>
-      </c>
-      <c r="P21">
-        <v>0.06620183179756664</v>
-      </c>
-      <c r="Q21">
-        <v>650.2661582534863</v>
-      </c>
-      <c r="R21">
-        <v>5852.395424281377</v>
-      </c>
-      <c r="S21">
-        <v>0.04095386580089746</v>
-      </c>
-      <c r="T21">
-        <v>0.04095386580089746</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>18.858705</v>
+      </c>
+      <c r="H25">
+        <v>56.576115</v>
+      </c>
+      <c r="I25">
+        <v>0.3362209153765779</v>
+      </c>
+      <c r="J25">
+        <v>0.3362209153765779</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>13.37928666666667</v>
+      </c>
+      <c r="N25">
+        <v>40.13786</v>
+      </c>
+      <c r="O25">
+        <v>0.04830841776694433</v>
+      </c>
+      <c r="P25">
+        <v>0.04830841776694433</v>
+      </c>
+      <c r="Q25">
+        <v>252.3160203571</v>
+      </c>
+      <c r="R25">
+        <v>2270.8441832139</v>
+      </c>
+      <c r="S25">
+        <v>0.01624230044199616</v>
+      </c>
+      <c r="T25">
+        <v>0.01624230044199616</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>18.858705</v>
+      </c>
+      <c r="H26">
+        <v>56.576115</v>
+      </c>
+      <c r="I26">
+        <v>0.3362209153765779</v>
+      </c>
+      <c r="J26">
+        <v>0.3362209153765779</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>10.83857433333333</v>
+      </c>
+      <c r="N26">
+        <v>32.515723</v>
+      </c>
+      <c r="O26">
+        <v>0.03913470052160829</v>
+      </c>
+      <c r="P26">
+        <v>0.03913470052160829</v>
+      </c>
+      <c r="Q26">
+        <v>204.401475972905</v>
+      </c>
+      <c r="R26">
+        <v>1839.613283756145</v>
+      </c>
+      <c r="S26">
+        <v>0.01315790483236338</v>
+      </c>
+      <c r="T26">
+        <v>0.01315790483236338</v>
       </c>
     </row>
   </sheetData>
